--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/ANA/McGill/Thesis_MER_Lyrics/lyric-emotion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7EC4F3-6B69-D942-9034-EA732C3CACF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B768319-B2A5-7B48-87C8-68D12DB5D16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42820" yWindow="-600" windowWidth="24380" windowHeight="18560" xr2:uid="{41DE1876-F9AC-1E4E-BEA6-7F19334698CB}"/>
+    <workbookView xWindow="30260" yWindow="-1040" windowWidth="29260" windowHeight="20200" xr2:uid="{41DE1876-F9AC-1E4E-BEA6-7F19334698CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="29">
   <si>
     <t>FOLD</t>
   </si>
@@ -79,6 +79,48 @@
   </si>
   <si>
     <t>SVM (linear) + StopRemoval + lemma</t>
+  </si>
+  <si>
+    <t>xlnet</t>
+  </si>
+  <si>
+    <t>MaxLen</t>
+  </si>
+  <si>
+    <t>BatchSize</t>
+  </si>
+  <si>
+    <t>LearningRate</t>
+  </si>
+  <si>
+    <t>AdaptiveLR</t>
+  </si>
+  <si>
+    <t>EarlyStopCriteria</t>
+  </si>
+  <si>
+    <t>EarlyStop?</t>
+  </si>
+  <si>
+    <t>1e-1</t>
+  </si>
+  <si>
+    <t>1e-2</t>
+  </si>
+  <si>
+    <t>1e-3</t>
+  </si>
+  <si>
+    <t>1e-4</t>
+  </si>
+  <si>
+    <t>1e-5</t>
+  </si>
+  <si>
+    <t>1e-6</t>
+  </si>
+  <si>
+    <t>bert</t>
   </si>
 </sst>
 </file>
@@ -88,7 +130,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -104,16 +146,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -121,15 +182,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,42 +527,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EBDF11-8CC0-FE4E-B5BF-9852BEC916B6}">
-  <dimension ref="A1:H1048576"/>
+  <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" customWidth="1"/>
-    <col min="2" max="7" width="10.83203125" style="1"/>
-    <col min="8" max="8" width="18.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.83203125" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="18.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" customWidth="1"/>
+    <col min="15" max="15" width="16.83203125" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="5">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="5">
         <v>2</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="5">
         <v>3</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="5">
         <v>4</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="5">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -651,26 +740,6 @@
         <v>1.4761734315452242</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G8" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G9" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H9" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
@@ -839,163 +908,1345 @@
         <v>1.8006476057241174</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G16" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H16" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G17" s="1" t="e">
-        <f>AVERAGE(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H17" s="1" t="e">
-        <f>STDEV(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G18" s="1" t="e">
-        <f t="shared" ref="G18:G30" si="2">AVERAGE(B18:F18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18" s="1" t="e">
-        <f t="shared" ref="H18:H30" si="3">STDEV(B18:F18)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G19" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H19" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G20" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G21" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H21" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G22" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H22" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G23" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H23" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G24" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H24" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G25" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H25" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G26" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H26" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G27" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H27" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G28" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H28" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G29" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G30" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5">
+        <v>2</v>
+      </c>
+      <c r="K17" s="5">
+        <v>3</v>
+      </c>
+      <c r="L17" s="5">
+        <v>4</v>
+      </c>
+      <c r="M17" s="5">
+        <v>5</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>512</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18">
+        <v>20</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8">
+        <v>43.75</v>
+      </c>
+      <c r="J18" s="8">
+        <v>37.5</v>
+      </c>
+      <c r="K18" s="8">
+        <v>37.5</v>
+      </c>
+      <c r="L18" s="8">
+        <v>40</v>
+      </c>
+      <c r="M18" s="8">
+        <v>13.333</v>
+      </c>
+      <c r="N18" s="8">
+        <f>AVERAGE(I18:M18)</f>
+        <v>34.416600000000003</v>
+      </c>
+      <c r="O18" s="8">
+        <f>STDEV(I18:M18)</f>
+        <v>12.060468597861357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>512</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19"/>
+      <c r="G19">
+        <v>20</v>
+      </c>
+      <c r="I19" s="1">
+        <v>25</v>
+      </c>
+      <c r="J19" s="1">
+        <v>43.75</v>
+      </c>
+      <c r="K19" s="1">
+        <v>56.25</v>
+      </c>
+      <c r="L19" s="1">
+        <v>26.667000000000002</v>
+      </c>
+      <c r="M19" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>512</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20"/>
+      <c r="G20">
+        <v>20</v>
+      </c>
+      <c r="I20" s="1">
+        <v>68.75</v>
+      </c>
+      <c r="J20" s="1">
+        <v>25</v>
+      </c>
+      <c r="K20" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="L20" s="1">
+        <v>26.667000000000002</v>
+      </c>
+      <c r="M20" s="1">
+        <v>13.333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>512</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21"/>
+      <c r="G21">
+        <v>20</v>
+      </c>
+      <c r="I21" s="1">
+        <v>43.75</v>
+      </c>
+      <c r="J21" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="K21" s="1">
+        <v>31.25</v>
+      </c>
+      <c r="L21" s="1">
+        <v>26.667000000000002</v>
+      </c>
+      <c r="M21" s="1">
+        <v>26.667000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>512</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22"/>
+      <c r="G22">
+        <v>20</v>
+      </c>
+      <c r="I22" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="J22" s="1">
+        <v>43.75</v>
+      </c>
+      <c r="K22" s="1">
+        <v>31.25</v>
+      </c>
+      <c r="L22" s="1">
+        <v>46.667000000000002</v>
+      </c>
+      <c r="M22" s="1">
+        <v>33.332999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>512</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23"/>
+      <c r="G23">
+        <v>20</v>
+      </c>
+      <c r="I23" s="1">
+        <v>31.25</v>
+      </c>
+      <c r="J23" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="K23" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="L23" s="1">
+        <v>33.332999999999998</v>
+      </c>
+      <c r="M23" s="1">
+        <v>6.6669999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>512</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24"/>
+      <c r="G24">
+        <v>20</v>
+      </c>
+      <c r="I24" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="J24" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="K24" s="1">
+        <v>25</v>
+      </c>
+      <c r="L24" s="1">
+        <v>33.332999999999998</v>
+      </c>
+      <c r="M24" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>512</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25"/>
+      <c r="G25">
+        <v>20</v>
+      </c>
+      <c r="I25" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="J25" s="1">
+        <v>31.25</v>
+      </c>
+      <c r="K25" s="1">
+        <v>50</v>
+      </c>
+      <c r="L25" s="1">
+        <v>46.667000000000002</v>
+      </c>
+      <c r="M25" s="1">
+        <v>33.332999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26">
+        <v>512</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26"/>
+      <c r="G26">
+        <v>20</v>
+      </c>
+      <c r="I26" s="1">
+        <v>31.25</v>
+      </c>
+      <c r="J26" s="1">
+        <v>25</v>
+      </c>
+      <c r="K26" s="1">
+        <v>43.75</v>
+      </c>
+      <c r="L26" s="1">
+        <v>33.332999999999998</v>
+      </c>
+      <c r="M26" s="1">
+        <v>33.332999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>512</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27"/>
+      <c r="G27">
+        <v>20</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>512</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28"/>
+      <c r="G28">
+        <v>20</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>512</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29"/>
+      <c r="G29">
+        <v>20</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <v>512</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30"/>
+      <c r="G30">
+        <v>20</v>
+      </c>
+      <c r="I30" s="1">
+        <v>56.25</v>
+      </c>
+      <c r="J30" s="1">
+        <v>56.25</v>
+      </c>
+      <c r="K30" s="1">
+        <v>75</v>
+      </c>
+      <c r="L30" s="1">
+        <v>80</v>
+      </c>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31">
+        <v>512</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31"/>
+      <c r="G31">
+        <v>20</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <v>512</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32"/>
+      <c r="G32">
+        <v>20</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33">
+        <v>512</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33"/>
+      <c r="G33">
+        <v>20</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34">
+        <v>512</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34"/>
+      <c r="G34">
+        <v>20</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35">
+        <v>512</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35"/>
+      <c r="G35">
+        <v>20</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36">
+        <v>512</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36"/>
+      <c r="G36">
+        <v>20</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37">
+        <v>512</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37"/>
+      <c r="G37">
+        <v>20</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38">
+        <v>512</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38">
+        <v>20</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39">
+        <v>512</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39">
+        <v>20</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40">
+        <v>512</v>
+      </c>
+      <c r="C40">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40">
+        <v>20</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41">
+        <v>512</v>
+      </c>
+      <c r="C41">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41">
+        <v>20</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B42"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43">
+        <v>512</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43"/>
+      <c r="G43">
+        <v>20</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44">
+        <v>512</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44"/>
+      <c r="G44">
+        <v>20</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45">
+        <v>512</v>
+      </c>
+      <c r="C45">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45"/>
+      <c r="G45">
+        <v>20</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46">
+        <v>512</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46"/>
+      <c r="G46">
+        <v>20</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47">
+        <v>512</v>
+      </c>
+      <c r="C47">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47"/>
+      <c r="G47">
+        <v>20</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48">
+        <v>512</v>
+      </c>
+      <c r="C48">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48"/>
+      <c r="G48">
+        <v>20</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49">
+        <v>512</v>
+      </c>
+      <c r="C49">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49"/>
+      <c r="G49">
+        <v>20</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50">
+        <v>512</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50"/>
+      <c r="G50">
+        <v>20</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51">
+        <v>512</v>
+      </c>
+      <c r="C51">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51"/>
+      <c r="G51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52">
+        <v>512</v>
+      </c>
+      <c r="C52">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52"/>
+      <c r="G52">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53">
+        <v>512</v>
+      </c>
+      <c r="C53">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53"/>
+      <c r="G53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54">
+        <v>512</v>
+      </c>
+      <c r="C54">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54"/>
+      <c r="G54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55">
+        <v>512</v>
+      </c>
+      <c r="C55">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55"/>
+      <c r="G55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56">
+        <v>512</v>
+      </c>
+      <c r="C56">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56"/>
+      <c r="G56">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57">
+        <v>512</v>
+      </c>
+      <c r="C57">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57"/>
+      <c r="G57">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58">
+        <v>512</v>
+      </c>
+      <c r="C58">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" t="s">
+        <v>26</v>
+      </c>
+      <c r="F58"/>
+      <c r="G58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59">
+        <v>512</v>
+      </c>
+      <c r="C59">
+        <v>8</v>
+      </c>
+      <c r="D59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59"/>
+      <c r="G59">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60">
+        <v>512</v>
+      </c>
+      <c r="C60">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60"/>
+      <c r="G60">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61">
+        <v>512</v>
+      </c>
+      <c r="C61">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61"/>
+      <c r="G61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62">
+        <v>512</v>
+      </c>
+      <c r="C62">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62"/>
+      <c r="G62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63">
+        <v>512</v>
+      </c>
+      <c r="C63">
+        <v>8</v>
+      </c>
+      <c r="D63" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64">
+        <v>512</v>
+      </c>
+      <c r="C64">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>27</v>
+      </c>
+      <c r="E64" t="s">
+        <v>24</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65">
+        <v>512</v>
+      </c>
+      <c r="C65">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>27</v>
+      </c>
+      <c r="E65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66">
+        <v>512</v>
+      </c>
+      <c r="C66">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" t="s">
+        <v>26</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66">
+        <v>20</v>
       </c>
     </row>
     <row r="1048576" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G1048576" s="1" t="e">
+      <c r="G1048576" s="1">
         <f>AVERAGE(G1:G1048575)</f>
-        <v>#DIV/0!</v>
+        <v>33.486293333333336</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/ANA/McGill/Thesis_MER_Lyrics/lyric-emotion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B768319-B2A5-7B48-87C8-68D12DB5D16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D0AA40-8FFC-FD44-A5B9-6D52C010D0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30260" yWindow="-1040" windowWidth="29260" windowHeight="20200" xr2:uid="{41DE1876-F9AC-1E4E-BEA6-7F19334698CB}"/>
+    <workbookView xWindow="37020" yWindow="-1520" windowWidth="30180" windowHeight="19820" xr2:uid="{41DE1876-F9AC-1E4E-BEA6-7F19334698CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="32">
   <si>
     <t>FOLD</t>
   </si>
@@ -102,9 +102,6 @@
     <t>EarlyStop?</t>
   </si>
   <si>
-    <t>1e-1</t>
-  </si>
-  <si>
     <t>1e-2</t>
   </si>
   <si>
@@ -121,6 +118,18 @@
   </si>
   <si>
     <t>bert</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Both lemmatization and stemming can improve performance</t>
+  </si>
+  <si>
+    <t>Stop words removal can significantly improve performance</t>
+  </si>
+  <si>
+    <t>SVM with rbf kernel, stemming, and stop words removal achieved the best performance.</t>
   </si>
 </sst>
 </file>
@@ -529,24 +538,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EBDF11-8CC0-FE4E-B5BF-9852BEC916B6}">
   <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.83203125" customWidth="1"/>
     <col min="2" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="12" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
     <col min="8" max="8" width="18.5" style="1" customWidth="1"/>
     <col min="13" max="13" width="10.83203125" customWidth="1"/>
     <col min="15" max="15" width="16.83203125" customWidth="1"/>
     <col min="16" max="16" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -572,7 +582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -599,8 +609,11 @@
         <f>STDEV(B2:F2)</f>
         <v>1.8303703723563698</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -620,15 +633,18 @@
         <v>87.658000000000001</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G16" si="0">AVERAGE(B3:F3)</f>
+        <f t="shared" ref="G3:G15" si="0">AVERAGE(B3:F3)</f>
         <v>86.615600000000001</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H16" si="1">STDEV(B3:F3)</f>
+        <f t="shared" ref="H3:H15" si="1">STDEV(B3:F3)</f>
         <v>1.4316722041026002</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -655,8 +671,11 @@
         <f t="shared" si="1"/>
         <v>1.809620125882778</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -684,7 +703,7 @@
         <v>1.9975939277040275</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -712,7 +731,7 @@
         <v>1.3892887388876338</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -740,7 +759,7 @@
         <v>1.4761734315452242</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -768,7 +787,7 @@
         <v>1.6145384789468469</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -796,7 +815,7 @@
         <v>0.82425766602440342</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -824,7 +843,7 @@
         <v>1.8525291630632963</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -852,7 +871,7 @@
         <v>1.3159487072070855</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -880,7 +899,7 @@
         <v>1.3497243051823584</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -965,36 +984,19 @@
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18"/>
       <c r="G18">
         <v>20</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8">
-        <v>43.75</v>
-      </c>
-      <c r="J18" s="8">
-        <v>37.5</v>
-      </c>
-      <c r="K18" s="8">
-        <v>37.5</v>
-      </c>
-      <c r="L18" s="8">
-        <v>40</v>
-      </c>
-      <c r="M18" s="8">
-        <v>13.333</v>
-      </c>
-      <c r="N18" s="8">
-        <f>AVERAGE(I18:M18)</f>
-        <v>34.416600000000003</v>
-      </c>
-      <c r="O18" s="8">
-        <f>STDEV(I18:M18)</f>
-        <v>12.060468597861357</v>
-      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -1010,27 +1012,17 @@
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F19"/>
       <c r="G19">
         <v>20</v>
       </c>
-      <c r="I19" s="1">
-        <v>25</v>
-      </c>
-      <c r="J19" s="1">
-        <v>43.75</v>
-      </c>
-      <c r="K19" s="1">
-        <v>56.25</v>
-      </c>
-      <c r="L19" s="1">
-        <v>26.667000000000002</v>
-      </c>
-      <c r="M19" s="1">
-        <v>20</v>
-      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -1046,27 +1038,17 @@
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F20"/>
       <c r="G20">
         <v>20</v>
       </c>
-      <c r="I20" s="1">
-        <v>68.75</v>
-      </c>
-      <c r="J20" s="1">
-        <v>25</v>
-      </c>
-      <c r="K20" s="1">
-        <v>37.5</v>
-      </c>
-      <c r="L20" s="1">
-        <v>26.667000000000002</v>
-      </c>
-      <c r="M20" s="1">
-        <v>13.333</v>
-      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -1082,27 +1064,17 @@
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21"/>
       <c r="G21">
         <v>20</v>
       </c>
-      <c r="I21" s="1">
-        <v>43.75</v>
-      </c>
-      <c r="J21" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="K21" s="1">
-        <v>31.25</v>
-      </c>
-      <c r="L21" s="1">
-        <v>26.667000000000002</v>
-      </c>
-      <c r="M21" s="1">
-        <v>26.667000000000002</v>
-      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -1118,27 +1090,17 @@
         <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F22"/>
       <c r="G22">
         <v>20</v>
       </c>
-      <c r="I22" s="1">
-        <v>18.75</v>
-      </c>
-      <c r="J22" s="1">
-        <v>43.75</v>
-      </c>
-      <c r="K22" s="1">
-        <v>31.25</v>
-      </c>
-      <c r="L22" s="1">
-        <v>46.667000000000002</v>
-      </c>
-      <c r="M22" s="1">
-        <v>33.332999999999998</v>
-      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -1154,27 +1116,17 @@
         <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23"/>
       <c r="G23">
         <v>20</v>
       </c>
-      <c r="I23" s="1">
-        <v>31.25</v>
-      </c>
-      <c r="J23" s="1">
-        <v>62.5</v>
-      </c>
-      <c r="K23" s="1">
-        <v>37.5</v>
-      </c>
-      <c r="L23" s="1">
-        <v>33.332999999999998</v>
-      </c>
-      <c r="M23" s="1">
-        <v>6.6669999999999998</v>
-      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -1190,27 +1142,17 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F24"/>
       <c r="G24">
         <v>20</v>
       </c>
-      <c r="I24" s="1">
-        <v>37.5</v>
-      </c>
-      <c r="J24" s="1">
-        <v>18.75</v>
-      </c>
-      <c r="K24" s="1">
-        <v>25</v>
-      </c>
-      <c r="L24" s="1">
-        <v>33.332999999999998</v>
-      </c>
-      <c r="M24" s="1">
-        <v>60</v>
-      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -1226,27 +1168,17 @@
         <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F25"/>
       <c r="G25">
         <v>20</v>
       </c>
-      <c r="I25" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="J25" s="1">
-        <v>31.25</v>
-      </c>
-      <c r="K25" s="1">
-        <v>50</v>
-      </c>
-      <c r="L25" s="1">
-        <v>46.667000000000002</v>
-      </c>
-      <c r="M25" s="1">
-        <v>33.332999999999998</v>
-      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -1262,27 +1194,17 @@
         <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F26"/>
       <c r="G26">
         <v>20</v>
       </c>
-      <c r="I26" s="1">
-        <v>31.25</v>
-      </c>
-      <c r="J26" s="1">
-        <v>25</v>
-      </c>
-      <c r="K26" s="1">
-        <v>43.75</v>
-      </c>
-      <c r="L26" s="1">
-        <v>33.332999999999998</v>
-      </c>
-      <c r="M26" s="1">
-        <v>33.332999999999998</v>
-      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -1298,7 +1220,7 @@
         <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F27"/>
       <c r="G27">
@@ -1324,7 +1246,7 @@
         <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F28"/>
       <c r="G28">
@@ -1350,7 +1272,7 @@
         <v>24</v>
       </c>
       <c r="E29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F29"/>
       <c r="G29">
@@ -1376,25 +1298,37 @@
         <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30"/>
+        <v>22</v>
+      </c>
+      <c r="F30" t="s">
+        <v>28</v>
+      </c>
       <c r="G30">
         <v>20</v>
       </c>
       <c r="I30" s="1">
-        <v>56.25</v>
+        <v>87.697000000000003</v>
       </c>
       <c r="J30" s="1">
-        <v>56.25</v>
+        <v>90.852000000000004</v>
       </c>
       <c r="K30" s="1">
-        <v>75</v>
+        <v>90.536000000000001</v>
       </c>
       <c r="L30" s="1">
-        <v>80</v>
-      </c>
-      <c r="M30" s="1"/>
+        <v>91.483000000000004</v>
+      </c>
+      <c r="M30" s="1">
+        <v>89.557000000000002</v>
+      </c>
+      <c r="N30" s="1">
+        <f>AVERAGE(I30:M30)</f>
+        <v>90.025000000000006</v>
+      </c>
+      <c r="O30">
+        <f>STDEV(I30:M30)</f>
+        <v>1.4755864935678971</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -1410,17 +1344,37 @@
         <v>25</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31"/>
+        <v>23</v>
+      </c>
+      <c r="F31" t="s">
+        <v>28</v>
+      </c>
       <c r="G31">
         <v>20</v>
       </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+      <c r="I31" s="1">
+        <v>91.798000000000002</v>
+      </c>
+      <c r="J31" s="1">
+        <v>89.274000000000001</v>
+      </c>
+      <c r="K31" s="1">
+        <v>91.167000000000002</v>
+      </c>
+      <c r="L31" s="1">
+        <v>89.274000000000001</v>
+      </c>
+      <c r="M31" s="1">
+        <v>90.822999999999993</v>
+      </c>
+      <c r="N31" s="1">
+        <f>AVERAGE(I31:M31)</f>
+        <v>90.467200000000005</v>
+      </c>
+      <c r="O31">
+        <f>STDEV(I31:M31)</f>
+        <v>1.1439836974362876</v>
+      </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -1436,7 +1390,7 @@
         <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F32"/>
       <c r="G32">
@@ -1447,8 +1401,9 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -1462,7 +1417,7 @@
         <v>25</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F33"/>
       <c r="G33">
@@ -1473,8 +1428,9 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -1488,9 +1444,9 @@
         <v>26</v>
       </c>
       <c r="E34" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34"/>
+        <v>22</v>
+      </c>
+      <c r="F34" s="2"/>
       <c r="G34">
         <v>20</v>
       </c>
@@ -1499,8 +1455,9 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -1514,9 +1471,9 @@
         <v>26</v>
       </c>
       <c r="E35" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35"/>
+        <v>23</v>
+      </c>
+      <c r="F35" s="2"/>
       <c r="G35">
         <v>20</v>
       </c>
@@ -1525,8 +1482,9 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -1540,9 +1498,9 @@
         <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36"/>
+        <v>24</v>
+      </c>
+      <c r="F36" s="2"/>
       <c r="G36">
         <v>20</v>
       </c>
@@ -1551,8 +1509,9 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -1566,9 +1525,9 @@
         <v>26</v>
       </c>
       <c r="E37" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37"/>
+        <v>25</v>
+      </c>
+      <c r="F37" s="2"/>
       <c r="G37">
         <v>20</v>
       </c>
@@ -1577,88 +1536,20 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38">
-        <v>512</v>
-      </c>
-      <c r="C38">
-        <v>8</v>
-      </c>
-      <c r="D38" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" s="2"/>
-      <c r="G38">
-        <v>20</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39">
-        <v>512</v>
-      </c>
-      <c r="C39">
-        <v>8</v>
-      </c>
-      <c r="D39" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" s="2"/>
-      <c r="G39">
-        <v>20</v>
-      </c>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40">
-        <v>512</v>
-      </c>
-      <c r="C40">
-        <v>8</v>
-      </c>
-      <c r="D40" t="s">
-        <v>27</v>
-      </c>
-      <c r="E40" t="s">
-        <v>25</v>
-      </c>
-      <c r="F40" s="2"/>
-      <c r="G40">
-        <v>20</v>
-      </c>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B41">
         <v>512</v>
@@ -1667,12 +1558,12 @@
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E41" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="F41"/>
       <c r="G41">
         <v>20</v>
       </c>
@@ -1681,23 +1572,38 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B42"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42">
+        <v>512</v>
+      </c>
+      <c r="C42">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42"/>
+      <c r="G42">
+        <v>20</v>
+      </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B43">
         <v>512</v>
@@ -1709,7 +1615,7 @@
         <v>22</v>
       </c>
       <c r="E43" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F43"/>
       <c r="G43">
@@ -1720,10 +1626,11 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B44">
         <v>512</v>
@@ -1735,7 +1642,7 @@
         <v>22</v>
       </c>
       <c r="E44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F44"/>
       <c r="G44">
@@ -1746,10 +1653,11 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B45">
         <v>512</v>
@@ -1758,24 +1666,20 @@
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E45" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F45"/>
       <c r="G45">
         <v>20</v>
       </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B46">
         <v>512</v>
@@ -1784,24 +1688,20 @@
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E46" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F46"/>
       <c r="G46">
         <v>20</v>
       </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B47">
         <v>512</v>
@@ -1813,21 +1713,17 @@
         <v>23</v>
       </c>
       <c r="E47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F47"/>
       <c r="G47">
         <v>20</v>
       </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B48">
         <v>512</v>
@@ -1839,21 +1735,17 @@
         <v>23</v>
       </c>
       <c r="E48" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F48"/>
       <c r="G48">
         <v>20</v>
       </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B49">
         <v>512</v>
@@ -1862,24 +1754,20 @@
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E49" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F49"/>
       <c r="G49">
         <v>20</v>
       </c>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B50">
         <v>512</v>
@@ -1888,24 +1776,20 @@
         <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E50" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F50"/>
       <c r="G50">
         <v>20</v>
       </c>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B51">
         <v>512</v>
@@ -1917,16 +1801,17 @@
         <v>24</v>
       </c>
       <c r="E51" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F51"/>
       <c r="G51">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B52">
         <v>512</v>
@@ -1938,37 +1823,63 @@
         <v>24</v>
       </c>
       <c r="E52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F52"/>
       <c r="G52">
         <v>20</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53">
+        <v>512</v>
+      </c>
+      <c r="C53">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" t="s">
         <v>28</v>
       </c>
-      <c r="B53">
-        <v>512</v>
-      </c>
-      <c r="C53">
-        <v>8</v>
-      </c>
-      <c r="D53" t="s">
-        <v>24</v>
-      </c>
-      <c r="E53" t="s">
-        <v>25</v>
-      </c>
-      <c r="F53"/>
       <c r="G53">
         <v>20</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I53">
+        <v>89.59</v>
+      </c>
+      <c r="J53">
+        <v>90.852000000000004</v>
+      </c>
+      <c r="K53">
+        <v>92.429000000000002</v>
+      </c>
+      <c r="L53">
+        <v>92.114000000000004</v>
+      </c>
+      <c r="M53">
+        <v>87.025000000000006</v>
+      </c>
+      <c r="N53" s="1">
+        <f t="shared" ref="N53" si="2">AVERAGE(I53:M53)</f>
+        <v>90.402000000000001</v>
+      </c>
+      <c r="O53">
+        <f t="shared" ref="O53" si="3">STDEV(I53:M53)</f>
+        <v>2.1969095338679732</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B54">
         <v>512</v>
@@ -1977,19 +1888,19 @@
         <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E54" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F54"/>
       <c r="G54">
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B55">
         <v>512</v>
@@ -2001,16 +1912,16 @@
         <v>25</v>
       </c>
       <c r="E55" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F55"/>
       <c r="G55">
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B56">
         <v>512</v>
@@ -2022,16 +1933,16 @@
         <v>25</v>
       </c>
       <c r="E56" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F56"/>
       <c r="G56">
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B57">
         <v>512</v>
@@ -2040,19 +1951,19 @@
         <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E57" t="s">
-        <v>25</v>
-      </c>
-      <c r="F57"/>
+        <v>22</v>
+      </c>
+      <c r="F57" s="2"/>
       <c r="G57">
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B58">
         <v>512</v>
@@ -2061,19 +1972,19 @@
         <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E58" t="s">
-        <v>26</v>
-      </c>
-      <c r="F58"/>
+        <v>23</v>
+      </c>
+      <c r="F58" s="2"/>
       <c r="G58">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B59">
         <v>512</v>
@@ -2085,16 +1996,16 @@
         <v>26</v>
       </c>
       <c r="E59" t="s">
-        <v>23</v>
-      </c>
-      <c r="F59"/>
+        <v>24</v>
+      </c>
+      <c r="F59" s="2"/>
       <c r="G59">
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B60">
         <v>512</v>
@@ -2106,143 +2017,857 @@
         <v>26</v>
       </c>
       <c r="E60" t="s">
-        <v>24</v>
-      </c>
-      <c r="F60"/>
+        <v>25</v>
+      </c>
+      <c r="F60" s="2"/>
       <c r="G60">
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>28</v>
-      </c>
-      <c r="B61">
-        <v>512</v>
-      </c>
-      <c r="C61">
-        <v>8</v>
-      </c>
-      <c r="D61" t="s">
-        <v>26</v>
-      </c>
-      <c r="E61" t="s">
-        <v>25</v>
-      </c>
-      <c r="F61"/>
-      <c r="G61">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>28</v>
-      </c>
-      <c r="B62">
-        <v>512</v>
-      </c>
-      <c r="C62">
-        <v>8</v>
-      </c>
-      <c r="D62" t="s">
-        <v>26</v>
-      </c>
-      <c r="E62" t="s">
-        <v>26</v>
-      </c>
-      <c r="F62"/>
-      <c r="G62">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>28</v>
-      </c>
-      <c r="B63">
-        <v>512</v>
-      </c>
-      <c r="C63">
-        <v>8</v>
-      </c>
-      <c r="D63" t="s">
-        <v>27</v>
-      </c>
-      <c r="E63" t="s">
-        <v>23</v>
-      </c>
-      <c r="F63" s="2"/>
-      <c r="G63">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B64">
         <v>512</v>
       </c>
       <c r="C64">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E64" t="s">
-        <v>24</v>
-      </c>
-      <c r="F64" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="F64"/>
       <c r="G64">
         <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B65">
         <v>512</v>
       </c>
       <c r="C65">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E65" t="s">
-        <v>25</v>
-      </c>
-      <c r="F65" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="F65"/>
       <c r="G65">
         <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B66">
         <v>512</v>
       </c>
       <c r="C66">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E66" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66"/>
+      <c r="G66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67">
+        <v>512</v>
+      </c>
+      <c r="C67">
+        <v>16</v>
+      </c>
+      <c r="D67" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67"/>
+      <c r="G67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68">
+        <v>512</v>
+      </c>
+      <c r="C68">
+        <v>16</v>
+      </c>
+      <c r="D68" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68"/>
+      <c r="G68">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69">
+        <v>512</v>
+      </c>
+      <c r="C69">
+        <v>16</v>
+      </c>
+      <c r="D69" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" t="s">
+        <v>23</v>
+      </c>
+      <c r="F69"/>
+      <c r="G69">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70">
+        <v>512</v>
+      </c>
+      <c r="C70">
+        <v>16</v>
+      </c>
+      <c r="D70" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70"/>
+      <c r="G70">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71">
+        <v>512</v>
+      </c>
+      <c r="C71">
+        <v>16</v>
+      </c>
+      <c r="D71" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71"/>
+      <c r="G71">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72">
+        <v>512</v>
+      </c>
+      <c r="C72">
+        <v>16</v>
+      </c>
+      <c r="D72" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" t="s">
+        <v>22</v>
+      </c>
+      <c r="F72"/>
+      <c r="G72">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73">
+        <v>512</v>
+      </c>
+      <c r="C73">
+        <v>16</v>
+      </c>
+      <c r="D73" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" t="s">
+        <v>23</v>
+      </c>
+      <c r="F73"/>
+      <c r="G73">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74">
+        <v>512</v>
+      </c>
+      <c r="C74">
+        <v>16</v>
+      </c>
+      <c r="D74" t="s">
+        <v>24</v>
+      </c>
+      <c r="E74" t="s">
+        <v>24</v>
+      </c>
+      <c r="F74"/>
+      <c r="G74">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75">
+        <v>512</v>
+      </c>
+      <c r="C75">
+        <v>16</v>
+      </c>
+      <c r="D75" t="s">
+        <v>24</v>
+      </c>
+      <c r="E75" t="s">
+        <v>25</v>
+      </c>
+      <c r="F75"/>
+      <c r="G75">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76">
+        <v>512</v>
+      </c>
+      <c r="C76">
+        <v>16</v>
+      </c>
+      <c r="D76" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F76"/>
+      <c r="G76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77">
+        <v>512</v>
+      </c>
+      <c r="C77">
+        <v>16</v>
+      </c>
+      <c r="D77" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77"/>
+      <c r="G77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78">
+        <v>512</v>
+      </c>
+      <c r="C78">
+        <v>16</v>
+      </c>
+      <c r="D78" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" t="s">
+        <v>24</v>
+      </c>
+      <c r="F78"/>
+      <c r="G78">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79">
+        <v>512</v>
+      </c>
+      <c r="C79">
+        <v>16</v>
+      </c>
+      <c r="D79" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79"/>
+      <c r="G79">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80">
+        <v>512</v>
+      </c>
+      <c r="C80">
+        <v>16</v>
+      </c>
+      <c r="D80" t="s">
         <v>26</v>
       </c>
-      <c r="F66" s="2"/>
-      <c r="G66">
+      <c r="E80" t="s">
+        <v>22</v>
+      </c>
+      <c r="F80" s="2"/>
+      <c r="G80">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81">
+        <v>512</v>
+      </c>
+      <c r="C81">
+        <v>16</v>
+      </c>
+      <c r="D81" t="s">
+        <v>26</v>
+      </c>
+      <c r="E81" t="s">
+        <v>23</v>
+      </c>
+      <c r="F81" s="2"/>
+      <c r="G81">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82">
+        <v>512</v>
+      </c>
+      <c r="C82">
+        <v>16</v>
+      </c>
+      <c r="D82" t="s">
+        <v>26</v>
+      </c>
+      <c r="E82" t="s">
+        <v>24</v>
+      </c>
+      <c r="F82" s="2"/>
+      <c r="G82">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83">
+        <v>512</v>
+      </c>
+      <c r="C83">
+        <v>16</v>
+      </c>
+      <c r="D83" t="s">
+        <v>26</v>
+      </c>
+      <c r="E83" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" s="2"/>
+      <c r="G83">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87">
+        <v>512</v>
+      </c>
+      <c r="C87">
+        <v>16</v>
+      </c>
+      <c r="D87" t="s">
+        <v>22</v>
+      </c>
+      <c r="E87" t="s">
+        <v>22</v>
+      </c>
+      <c r="F87"/>
+      <c r="G87">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>27</v>
+      </c>
+      <c r="B88">
+        <v>512</v>
+      </c>
+      <c r="C88">
+        <v>16</v>
+      </c>
+      <c r="D88" t="s">
+        <v>22</v>
+      </c>
+      <c r="E88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F88"/>
+      <c r="G88">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>27</v>
+      </c>
+      <c r="B89">
+        <v>512</v>
+      </c>
+      <c r="C89">
+        <v>16</v>
+      </c>
+      <c r="D89" t="s">
+        <v>22</v>
+      </c>
+      <c r="E89" t="s">
+        <v>24</v>
+      </c>
+      <c r="F89"/>
+      <c r="G89">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>27</v>
+      </c>
+      <c r="B90">
+        <v>512</v>
+      </c>
+      <c r="C90">
+        <v>16</v>
+      </c>
+      <c r="D90" t="s">
+        <v>22</v>
+      </c>
+      <c r="E90" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90"/>
+      <c r="G90">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>27</v>
+      </c>
+      <c r="B91">
+        <v>512</v>
+      </c>
+      <c r="C91">
+        <v>16</v>
+      </c>
+      <c r="D91" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F91"/>
+      <c r="G91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>27</v>
+      </c>
+      <c r="B92">
+        <v>512</v>
+      </c>
+      <c r="C92">
+        <v>16</v>
+      </c>
+      <c r="D92" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" t="s">
+        <v>23</v>
+      </c>
+      <c r="F92"/>
+      <c r="G92">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>27</v>
+      </c>
+      <c r="B93">
+        <v>512</v>
+      </c>
+      <c r="C93">
+        <v>16</v>
+      </c>
+      <c r="D93" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" t="s">
+        <v>24</v>
+      </c>
+      <c r="F93"/>
+      <c r="G93">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>27</v>
+      </c>
+      <c r="B94">
+        <v>512</v>
+      </c>
+      <c r="C94">
+        <v>16</v>
+      </c>
+      <c r="D94" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" t="s">
+        <v>25</v>
+      </c>
+      <c r="F94"/>
+      <c r="G94">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95">
+        <v>512</v>
+      </c>
+      <c r="C95">
+        <v>16</v>
+      </c>
+      <c r="D95" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" t="s">
+        <v>22</v>
+      </c>
+      <c r="F95"/>
+      <c r="G95">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>27</v>
+      </c>
+      <c r="B96">
+        <v>512</v>
+      </c>
+      <c r="C96">
+        <v>16</v>
+      </c>
+      <c r="D96" t="s">
+        <v>24</v>
+      </c>
+      <c r="E96" t="s">
+        <v>23</v>
+      </c>
+      <c r="F96"/>
+      <c r="G96">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>27</v>
+      </c>
+      <c r="B97">
+        <v>512</v>
+      </c>
+      <c r="C97">
+        <v>16</v>
+      </c>
+      <c r="D97" t="s">
+        <v>24</v>
+      </c>
+      <c r="E97" t="s">
+        <v>24</v>
+      </c>
+      <c r="F97"/>
+      <c r="G97">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>27</v>
+      </c>
+      <c r="B98">
+        <v>512</v>
+      </c>
+      <c r="C98">
+        <v>16</v>
+      </c>
+      <c r="D98" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" t="s">
+        <v>25</v>
+      </c>
+      <c r="F98"/>
+      <c r="G98">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>27</v>
+      </c>
+      <c r="B99">
+        <v>512</v>
+      </c>
+      <c r="C99">
+        <v>16</v>
+      </c>
+      <c r="D99" t="s">
+        <v>25</v>
+      </c>
+      <c r="E99" t="s">
+        <v>22</v>
+      </c>
+      <c r="F99"/>
+      <c r="G99">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>27</v>
+      </c>
+      <c r="B100">
+        <v>512</v>
+      </c>
+      <c r="C100">
+        <v>16</v>
+      </c>
+      <c r="D100" t="s">
+        <v>25</v>
+      </c>
+      <c r="E100" t="s">
+        <v>23</v>
+      </c>
+      <c r="F100"/>
+      <c r="G100">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>27</v>
+      </c>
+      <c r="B101">
+        <v>512</v>
+      </c>
+      <c r="C101">
+        <v>16</v>
+      </c>
+      <c r="D101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E101" t="s">
+        <v>24</v>
+      </c>
+      <c r="F101"/>
+      <c r="G101">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>27</v>
+      </c>
+      <c r="B102">
+        <v>512</v>
+      </c>
+      <c r="C102">
+        <v>16</v>
+      </c>
+      <c r="D102" t="s">
+        <v>25</v>
+      </c>
+      <c r="E102" t="s">
+        <v>25</v>
+      </c>
+      <c r="F102"/>
+      <c r="G102">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>27</v>
+      </c>
+      <c r="B103">
+        <v>512</v>
+      </c>
+      <c r="C103">
+        <v>16</v>
+      </c>
+      <c r="D103" t="s">
+        <v>26</v>
+      </c>
+      <c r="E103" t="s">
+        <v>22</v>
+      </c>
+      <c r="F103" s="2"/>
+      <c r="G103">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>27</v>
+      </c>
+      <c r="B104">
+        <v>512</v>
+      </c>
+      <c r="C104">
+        <v>16</v>
+      </c>
+      <c r="D104" t="s">
+        <v>26</v>
+      </c>
+      <c r="E104" t="s">
+        <v>23</v>
+      </c>
+      <c r="F104" s="2"/>
+      <c r="G104">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>27</v>
+      </c>
+      <c r="B105">
+        <v>512</v>
+      </c>
+      <c r="C105">
+        <v>16</v>
+      </c>
+      <c r="D105" t="s">
+        <v>26</v>
+      </c>
+      <c r="E105" t="s">
+        <v>24</v>
+      </c>
+      <c r="F105" s="2"/>
+      <c r="G105">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>27</v>
+      </c>
+      <c r="B106">
+        <v>512</v>
+      </c>
+      <c r="C106">
+        <v>16</v>
+      </c>
+      <c r="D106" t="s">
+        <v>26</v>
+      </c>
+      <c r="E106" t="s">
+        <v>25</v>
+      </c>
+      <c r="F106" s="2"/>
+      <c r="G106">
         <v>20</v>
       </c>
     </row>
     <row r="1048576" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1048576" s="1">
         <f>AVERAGE(G1:G1048575)</f>
-        <v>33.486293333333336</v>
+        <v>28.795408695652174</v>
       </c>
     </row>
   </sheetData>
